--- a/data/trans_bre/P19-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.308072377267043</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.798492286557964</v>
+        <v>3.798492286557958</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6174020087245344</v>
@@ -649,7 +649,7 @@
         <v>0.1369188351669037</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1387487410195469</v>
+        <v>0.1387487410195467</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.689685020405143</v>
+        <v>9.697254479110963</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.356889764628312</v>
+        <v>1.504144660920949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.953437905660672</v>
+        <v>-1.39826248250101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.385080030045606</v>
+        <v>-6.673088021282789</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3436035687642899</v>
+        <v>0.3462468848424999</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03190024428740019</v>
+        <v>0.05124460366191166</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.04956543674470762</v>
+        <v>-0.03714159725017733</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1892984609789289</v>
+        <v>-0.210185959332244</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.26756399522075</v>
+        <v>21.04418399751073</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.97387437724115</v>
+        <v>14.17057834037945</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.98718144279855</v>
+        <v>12.15856408516148</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.41487960208663</v>
+        <v>12.52202465415864</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.979611611250743</v>
+        <v>0.9484547134203263</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4968194483759628</v>
+        <v>0.5355362026677408</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3422097131950703</v>
+        <v>0.3318997771580815</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6098437492966953</v>
+        <v>0.5642334236143405</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.067243525733181</v>
+        <v>1.054819154400556</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.468014870154039</v>
+        <v>-1.299407280380028</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.828059786695309</v>
+        <v>2.005249456610275</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.183818851900124</v>
+        <v>-2.258975836297032</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04093213750416252</v>
+        <v>0.03410120761594135</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04344921139273063</v>
+        <v>-0.04020263732375496</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04586638071511699</v>
+        <v>0.054082754891889</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06930890543605057</v>
+        <v>-0.07680347040788811</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.14155931346591</v>
+        <v>11.07424712400888</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.546411366503236</v>
+        <v>9.014798974667114</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.14157507230677</v>
+        <v>13.55960924046716</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.05866322008349</v>
+        <v>10.80954136604212</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4501690924829596</v>
+        <v>0.4433472581977527</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3516929273185435</v>
+        <v>0.3388147879869483</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4051810460790712</v>
+        <v>0.4285807902824976</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4735105396702114</v>
+        <v>0.442157850169545</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.624609516706976</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11.68058168997726</v>
+        <v>11.68058168997727</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2673482959864212</v>
@@ -849,7 +849,7 @@
         <v>0.267897483846386</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4406585508659372</v>
+        <v>0.4406585508659375</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.992986629685364</v>
+        <v>2.095526615233725</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.850095665839756</v>
+        <v>3.221462655098643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.905060558560458</v>
+        <v>2.56328876902381</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.014688206419439</v>
+        <v>6.001976819841702</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06906823191418962</v>
+        <v>0.06955352147195459</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1001664056056684</v>
+        <v>0.1109243947311625</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09267788740729674</v>
+        <v>0.08029847127936537</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.240685072062381</v>
+        <v>0.1998627931136804</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.87768996415877</v>
+        <v>11.59908529079045</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.99841337661728</v>
+        <v>13.15779043241379</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.67216261451272</v>
+        <v>12.54564039173815</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.00644135135231</v>
+        <v>16.59141488037984</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5070710608524341</v>
+        <v>0.4779556511171956</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5506688782845196</v>
+        <v>0.556939676045723</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4891006082162169</v>
+        <v>0.4839487974903467</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7006004528788023</v>
+        <v>0.6917219454487596</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.908496228330873</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.046126490101821</v>
+        <v>6.046126490101816</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3727617841265132</v>
@@ -949,7 +949,7 @@
         <v>0.1953587796303654</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2066919195353159</v>
+        <v>0.2066919195353156</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.218927237674619</v>
+        <v>3.992803752612104</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.139128077254242</v>
+        <v>1.064728801269571</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6270379645705184</v>
+        <v>0.5175394353491483</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.944515248924333</v>
+        <v>1.680710522495839</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.14316388356323</v>
+        <v>0.1357070200324863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03963172224284649</v>
+        <v>0.03192075230784371</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01812071392075441</v>
+        <v>0.01786835503581448</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.03054717783233006</v>
+        <v>0.05243593571076745</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.21706134975409</v>
+        <v>15.65935885915409</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.93466140899119</v>
+        <v>11.94522405251329</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.77224099203581</v>
+        <v>11.03860632902556</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.38564115212473</v>
+        <v>10.6176425388229</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6722013175883761</v>
+        <v>0.6524519404119647</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.515848269353572</v>
+        <v>0.5134918638020057</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4373021609704016</v>
+        <v>0.4074131206020515</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3920053309892876</v>
+        <v>0.4016558882292335</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9805159866636106</v>
+        <v>-0.7332279225397533</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1695307122571346</v>
+        <v>1.039019640514504</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.810349592496261</v>
+        <v>-2.189077713663327</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.686878269151902</v>
+        <v>4.034816704144469</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03566991815999896</v>
+        <v>-0.03028880227647331</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008414231445017985</v>
+        <v>0.03816328312476487</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.05551938552128174</v>
+        <v>-0.07248399974873382</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1260385349523793</v>
+        <v>0.1398389135182425</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.90452204197929</v>
+        <v>11.82993818254386</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.70400742753374</v>
+        <v>12.57937013229615</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.1557224648446</v>
+        <v>10.25078342713728</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.70155354761424</v>
+        <v>13.00653212058223</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5053026541821123</v>
+        <v>0.5577930950064675</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7243339494029497</v>
+        <v>0.680591215879237</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4152631832564941</v>
+        <v>0.433382397946382</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5389601768210007</v>
+        <v>0.5793032946992503</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>10.24502928597135</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.6062134383367224</v>
+        <v>-0.6062134383367168</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01895034597832326</v>
@@ -1149,7 +1149,7 @@
         <v>0.5156491798623983</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.0227283904745882</v>
+        <v>-0.022728390474588</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.528366917658174</v>
+        <v>-5.882097284633898</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.031524117574125</v>
+        <v>1.987216801332536</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.171792960075836</v>
+        <v>3.705188276636976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.453332049872671</v>
+        <v>-5.708487970469232</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2328421912763548</v>
+        <v>-0.2272360206632782</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07873041697603267</v>
+        <v>0.07466843548982456</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1862660480566174</v>
+        <v>0.1475628261869767</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1816713410871747</v>
+        <v>-0.1902400551341607</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.955804754544139</v>
+        <v>6.62046024088799</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.30938518254543</v>
+        <v>15.19368627414867</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.14860670308435</v>
+        <v>16.93390737260873</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.038333020466191</v>
+        <v>3.975631645930432</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3779467034042874</v>
+        <v>0.3972471725994012</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.068949083819728</v>
+        <v>1.045339979906574</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.005486789363547</v>
+        <v>1.036082648036537</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1731122468042961</v>
+        <v>0.1712056171177407</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>3.618681052182368</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-1.376086992597061</v>
+        <v>-1.376086992597067</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03524815012466787</v>
@@ -1249,7 +1249,7 @@
         <v>0.2654049212939286</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.09009853498974747</v>
+        <v>-0.09009853498974782</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.199712064803654</v>
+        <v>-5.583527549882118</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.648531756707296</v>
+        <v>-1.53292866065664</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.471031617156189</v>
+        <v>-2.180725660436886</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.842382863750146</v>
+        <v>-5.565834562062062</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3577515215926944</v>
+        <v>-0.341637433420495</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1352658870995644</v>
+        <v>-0.1241804290690922</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1550472899023147</v>
+        <v>-0.1364145834157546</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.31519608081976</v>
+        <v>-0.3110980814840809</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.13268794772511</v>
+        <v>6.658085637501077</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.820809880991403</v>
+        <v>8.793929912635745</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.358886836872378</v>
+        <v>9.838638412308164</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.56882353354859</v>
+        <v>2.772157972489969</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6150593369751147</v>
+        <v>0.6631535558721008</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.39816265670093</v>
+        <v>1.43152446572544</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8681880583841014</v>
+        <v>0.9288880249776722</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2105089845064723</v>
+        <v>0.228220953490019</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>5.478264444350484</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.817977169485566</v>
+        <v>4.81797716948556</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2600292380484498</v>
@@ -1349,7 +1349,7 @@
         <v>0.1885252827185047</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1830320425102384</v>
+        <v>0.1830320425102382</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.343114033970245</v>
+        <v>4.206642823165589</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.535317358219878</v>
+        <v>3.539709917899354</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.278488041674565</v>
+        <v>3.355593992874593</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.727615090978445</v>
+        <v>2.717586574655213</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1660670226455143</v>
+        <v>0.1619381608392835</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1386014453412365</v>
+        <v>0.1343176123288355</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1093991201233495</v>
+        <v>0.1132512683833352</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0969832826018166</v>
+        <v>0.09805527390205086</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>8.739624439758968</v>
+        <v>8.5600487444271</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.969027983281679</v>
+        <v>7.717219111384265</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.75758960143332</v>
+        <v>7.738147663108931</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.037301654958758</v>
+        <v>7.042887283308433</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3663977583601246</v>
+        <v>0.3596757819915951</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3387505466035582</v>
+        <v>0.3247252283110686</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2776462238911628</v>
+        <v>0.2833339625553585</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2794786205818889</v>
+        <v>0.2794558937771994</v>
       </c>
     </row>
     <row r="28">
